--- a/Code/Results/Cases/Case_0_99/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_99/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1893408085754373</v>
+        <v>0.05107311783547175</v>
       </c>
       <c r="D2">
-        <v>0.3304286018459948</v>
+        <v>0.1348425512076261</v>
       </c>
       <c r="E2">
-        <v>0.2614469882248045</v>
+        <v>0.07753440865865002</v>
       </c>
       <c r="F2">
-        <v>2.897906118449839</v>
+        <v>7.336283575130153</v>
       </c>
       <c r="G2">
-        <v>0.0006963056469324108</v>
+        <v>0.002807598003919605</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.243283291545978</v>
+        <v>5.48723525839327</v>
       </c>
       <c r="J2">
-        <v>0.3110409892615422</v>
+        <v>0.1669609229091691</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.494205913684354</v>
+        <v>0.1653712041401434</v>
       </c>
       <c r="M2">
-        <v>34.11667773667347</v>
+        <v>12.85679754728847</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.154635717958584</v>
+        <v>0.04567767352035901</v>
       </c>
       <c r="D3">
-        <v>0.2646355000636618</v>
+        <v>0.1290583356567936</v>
       </c>
       <c r="E3">
-        <v>0.2193736808745186</v>
+        <v>0.06836154237538494</v>
       </c>
       <c r="F3">
-        <v>2.347737865937376</v>
+        <v>7.535399107722242</v>
       </c>
       <c r="G3">
-        <v>0.0007370808376413006</v>
+        <v>0.002822979187190019</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.811805970495712</v>
+        <v>5.635235392315465</v>
       </c>
       <c r="J3">
-        <v>0.2520463326325739</v>
+        <v>0.1617416232217437</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4107762845589349</v>
+        <v>0.1497844912632473</v>
       </c>
       <c r="M3">
-        <v>28.57842521300392</v>
+        <v>11.66965917421413</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1357451990668324</v>
+        <v>0.04240839678877251</v>
       </c>
       <c r="D4">
-        <v>0.2302878449205394</v>
+        <v>0.1257111067537693</v>
       </c>
       <c r="E4">
-        <v>0.1956373971147158</v>
+        <v>0.06273122383467467</v>
       </c>
       <c r="F4">
-        <v>2.129939138281628</v>
+        <v>7.66756436280896</v>
       </c>
       <c r="G4">
-        <v>0.0007604009650893961</v>
+        <v>0.002832821965852642</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.638887251830141</v>
+        <v>5.733589757468593</v>
       </c>
       <c r="J4">
-        <v>0.221954403444542</v>
+        <v>0.1587253388242544</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3649471868171617</v>
+        <v>0.1402753348585151</v>
       </c>
       <c r="M4">
-        <v>25.47775079678803</v>
+        <v>10.94011934200449</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1284665841459542</v>
+        <v>0.04108640659902107</v>
       </c>
       <c r="D5">
-        <v>0.2173416506353618</v>
+        <v>0.1243967398262527</v>
       </c>
       <c r="E5">
-        <v>0.1863262536094012</v>
+        <v>0.06043684315277886</v>
       </c>
       <c r="F5">
-        <v>2.062371528078742</v>
+        <v>7.72388160468725</v>
       </c>
       <c r="G5">
-        <v>0.0007696428312108069</v>
+        <v>0.002836934067618377</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.584656343077924</v>
+        <v>5.775526339184779</v>
       </c>
       <c r="J5">
-        <v>0.2107407743924057</v>
+        <v>0.1575422248114222</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3471961861532833</v>
+        <v>0.1364145340559304</v>
       </c>
       <c r="M5">
-        <v>24.26552335748488</v>
+        <v>10.64260377035265</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1272793169115687</v>
+        <v>0.04086749169991322</v>
       </c>
       <c r="D6">
-        <v>0.2152455297618872</v>
+        <v>0.1241814401303998</v>
       </c>
       <c r="E6">
-        <v>0.1847984498542701</v>
+        <v>0.06005585180788842</v>
       </c>
       <c r="F6">
-        <v>2.05224463856824</v>
+        <v>7.733380613111891</v>
       </c>
       <c r="G6">
-        <v>0.0007711652478431805</v>
+        <v>0.002837623008571925</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.576488315130291</v>
+        <v>5.782601280452852</v>
       </c>
       <c r="J6">
-        <v>0.2089318630940937</v>
+        <v>0.1573485136467383</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.344295380510431</v>
+        <v>0.1357742811729423</v>
       </c>
       <c r="M6">
-        <v>24.06682294440441</v>
+        <v>10.59318636903942</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1356455273204347</v>
+        <v>0.04239052728328829</v>
       </c>
       <c r="D7">
-        <v>0.2301094603804614</v>
+        <v>0.1256931819150537</v>
       </c>
       <c r="E7">
-        <v>0.1955105264313701</v>
+        <v>0.06270028149939577</v>
       </c>
       <c r="F7">
-        <v>2.128950959749545</v>
+        <v>7.668313963369201</v>
       </c>
       <c r="G7">
-        <v>0.0007605264923424165</v>
+        <v>0.002832877012571423</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.638096933831832</v>
+        <v>5.73414784489681</v>
       </c>
       <c r="J7">
-        <v>0.2217994102180967</v>
+        <v>0.1587091981814268</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3647044770786181</v>
+        <v>0.1402232104336747</v>
       </c>
       <c r="M7">
-        <v>25.46121857635535</v>
+        <v>10.93610792236916</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1767248702004878</v>
+        <v>0.04920330937341078</v>
       </c>
       <c r="D8">
-        <v>0.3061176722318919</v>
+        <v>0.1328046978263728</v>
       </c>
       <c r="E8">
-        <v>0.2463761116549819</v>
+        <v>0.07437093538643325</v>
       </c>
       <c r="F8">
-        <v>2.676187444326274</v>
+        <v>7.402862500103339</v>
       </c>
       <c r="G8">
-        <v>0.0007108544407368988</v>
+        <v>0.002812819207504053</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.069952189172724</v>
+        <v>5.536697672433931</v>
       </c>
       <c r="J8">
-        <v>0.2890377596907854</v>
+        <v>0.1651213819755526</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4639803890962497</v>
+        <v>0.1599835084042525</v>
       </c>
       <c r="M8">
-        <v>32.12607523555891</v>
+        <v>12.447563431464</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2985063610544358</v>
+        <v>0.0629413649668038</v>
       </c>
       <c r="D9">
-        <v>0.5591382702516512</v>
+        <v>0.1484523175404178</v>
       </c>
       <c r="E9">
-        <v>0.3815766315403337</v>
+        <v>0.09729492870617662</v>
       </c>
       <c r="F9">
-        <v>5.796419416891467</v>
+        <v>6.9624230663307</v>
       </c>
       <c r="G9">
-        <v>0.0005798779602490451</v>
+        <v>0.002776609481830001</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4.48737360633271</v>
+        <v>5.210013160579052</v>
       </c>
       <c r="J9">
-        <v>0.5291603156506142</v>
+        <v>0.1792555236583695</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.7521292107087163</v>
+        <v>0.1992755667670139</v>
       </c>
       <c r="M9">
-        <v>50.3481109140285</v>
+        <v>15.40976150285911</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2985063610544358</v>
+        <v>0.07331339805311643</v>
       </c>
       <c r="D10">
-        <v>0.5591382702516512</v>
+        <v>0.161103748367708</v>
       </c>
       <c r="E10">
-        <v>0.3815766315403337</v>
+        <v>0.1141967527032932</v>
       </c>
       <c r="F10">
-        <v>5.796419416891467</v>
+        <v>6.689803322038415</v>
       </c>
       <c r="G10">
-        <v>0.0005798779602490451</v>
+        <v>0.002751852736617974</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.48737360633271</v>
+        <v>5.00852890086415</v>
       </c>
       <c r="J10">
-        <v>0.5291603156506142</v>
+        <v>0.1906892919340351</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7521292107087163</v>
+        <v>0.2285628323625986</v>
       </c>
       <c r="M10">
-        <v>50.3481109140285</v>
+        <v>17.59012777263155</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2985063610544358</v>
+        <v>0.07810358047638033</v>
       </c>
       <c r="D11">
-        <v>0.5591382702516512</v>
+        <v>0.1671371359386455</v>
       </c>
       <c r="E11">
-        <v>0.3815766315403337</v>
+        <v>0.1219076831428367</v>
       </c>
       <c r="F11">
-        <v>5.796419416891467</v>
+        <v>6.577337877566322</v>
       </c>
       <c r="G11">
-        <v>0.0005798779602490451</v>
+        <v>0.002740978076939132</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.48737360633271</v>
+        <v>4.925610423829681</v>
       </c>
       <c r="J11">
-        <v>0.5291603156506142</v>
+        <v>0.1961424235683467</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.7521292107087163</v>
+        <v>0.2419991677643623</v>
       </c>
       <c r="M11">
-        <v>50.3481109140285</v>
+        <v>18.58416102513786</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2985063610544358</v>
+        <v>0.07992879057482583</v>
       </c>
       <c r="D12">
-        <v>0.5591382702516512</v>
+        <v>0.1694641621954815</v>
       </c>
       <c r="E12">
-        <v>0.3815766315403337</v>
+        <v>0.1248315742270307</v>
       </c>
       <c r="F12">
-        <v>5.796419416891467</v>
+        <v>6.536454046529798</v>
       </c>
       <c r="G12">
-        <v>0.0005798779602490451</v>
+        <v>0.002736914721665212</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.48737360633271</v>
+        <v>4.895500809407508</v>
       </c>
       <c r="J12">
-        <v>0.5291603156506142</v>
+        <v>0.1982457109846507</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.7521292107087163</v>
+        <v>0.2471053718840324</v>
       </c>
       <c r="M12">
-        <v>50.3481109140285</v>
+        <v>18.96099667253446</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2985063610544358</v>
+        <v>0.07953518220909928</v>
       </c>
       <c r="D13">
-        <v>0.5591382702516512</v>
+        <v>0.1689610755557283</v>
       </c>
       <c r="E13">
-        <v>0.3815766315403337</v>
+        <v>0.1242016748873027</v>
       </c>
       <c r="F13">
-        <v>5.796419416891467</v>
+        <v>6.545182594569837</v>
       </c>
       <c r="G13">
-        <v>0.0005798779602490451</v>
+        <v>0.002737787424980957</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.48737360633271</v>
+        <v>4.901927541230393</v>
       </c>
       <c r="J13">
-        <v>0.5291603156506142</v>
+        <v>0.1977909919202716</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.7521292107087163</v>
+        <v>0.2460048210305388</v>
       </c>
       <c r="M13">
-        <v>50.3481109140285</v>
+        <v>18.87981808709748</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2985063610544358</v>
+        <v>0.07825351017990556</v>
       </c>
       <c r="D14">
-        <v>0.5591382702516512</v>
+        <v>0.1673277201285543</v>
       </c>
       <c r="E14">
-        <v>0.3815766315403337</v>
+        <v>0.1221481502576367</v>
       </c>
       <c r="F14">
-        <v>5.796419416891467</v>
+        <v>6.573939925657413</v>
       </c>
       <c r="G14">
-        <v>0.0005798779602490451</v>
+        <v>0.002740642693125144</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.48737360633271</v>
+        <v>4.923107241419203</v>
       </c>
       <c r="J14">
-        <v>0.5291603156506142</v>
+        <v>0.1963146821038322</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7521292107087163</v>
+        <v>0.2424188832906395</v>
       </c>
       <c r="M14">
-        <v>50.3481109140285</v>
+        <v>18.61515454043945</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2985063610544358</v>
+        <v>0.0774699455408836</v>
       </c>
       <c r="D15">
-        <v>0.5591382702516512</v>
+        <v>0.1663328237106043</v>
       </c>
       <c r="E15">
-        <v>0.3815766315403337</v>
+        <v>0.1208908416286008</v>
       </c>
       <c r="F15">
-        <v>5.796419416891467</v>
+        <v>6.591777906826763</v>
       </c>
       <c r="G15">
-        <v>0.0005798779602490451</v>
+        <v>0.00274239871172373</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.48737360633271</v>
+        <v>4.936249407175623</v>
       </c>
       <c r="J15">
-        <v>0.5291603156506142</v>
+        <v>0.1954154526864329</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7521292107087163</v>
+        <v>0.2402248145561146</v>
       </c>
       <c r="M15">
-        <v>50.3481109140285</v>
+        <v>18.45309799321001</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2985063610544358</v>
+        <v>0.07300187377170175</v>
       </c>
       <c r="D16">
-        <v>0.5591382702516512</v>
+        <v>0.1607152450863509</v>
       </c>
       <c r="E16">
-        <v>0.3815766315403337</v>
+        <v>0.1136933337128454</v>
       </c>
       <c r="F16">
-        <v>5.796419416891467</v>
+        <v>6.697389298214318</v>
       </c>
       <c r="G16">
-        <v>0.0005798779602490451</v>
+        <v>0.002752571125935191</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.48737360633271</v>
+        <v>5.014126458600231</v>
       </c>
       <c r="J16">
-        <v>0.5291603156506142</v>
+        <v>0.1903381600355232</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7521292107087163</v>
+        <v>0.2276871729943082</v>
       </c>
       <c r="M16">
-        <v>50.3481109140285</v>
+        <v>17.52521782892046</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2985063610544358</v>
+        <v>0.07027991937536626</v>
       </c>
       <c r="D17">
-        <v>0.5591382702516512</v>
+        <v>0.1573419018733944</v>
       </c>
       <c r="E17">
-        <v>0.3815766315403337</v>
+        <v>0.1092840889070459</v>
       </c>
       <c r="F17">
-        <v>5.796419416891467</v>
+        <v>6.765167134117974</v>
       </c>
       <c r="G17">
-        <v>0.0005798779602490451</v>
+        <v>0.002758910036677581</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.48737360633271</v>
+        <v>5.064162688509327</v>
       </c>
       <c r="J17">
-        <v>0.5291603156506142</v>
+        <v>0.187289350442768</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7521292107087163</v>
+        <v>0.2200260525067819</v>
       </c>
       <c r="M17">
-        <v>50.3481109140285</v>
+        <v>16.95662176432393</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2985063610544358</v>
+        <v>0.06872103137293095</v>
       </c>
       <c r="D18">
-        <v>0.5591382702516512</v>
+        <v>0.1554276836887709</v>
       </c>
       <c r="E18">
-        <v>0.3815766315403337</v>
+        <v>0.1067500505917707</v>
       </c>
       <c r="F18">
-        <v>5.796419416891467</v>
+        <v>6.80523564007521</v>
       </c>
       <c r="G18">
-        <v>0.0005798779602490451</v>
+        <v>0.002762592531388163</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.48737360633271</v>
+        <v>5.093762556633706</v>
       </c>
       <c r="J18">
-        <v>0.5291603156506142</v>
+        <v>0.1855593275800231</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.7521292107087163</v>
+        <v>0.2156301343311071</v>
       </c>
       <c r="M18">
-        <v>50.3481109140285</v>
+        <v>16.62977822053313</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2985063610544358</v>
+        <v>0.06819434313440809</v>
       </c>
       <c r="D19">
-        <v>0.5591382702516512</v>
+        <v>0.1547839660564989</v>
       </c>
       <c r="E19">
-        <v>0.3815766315403337</v>
+        <v>0.1058923980943192</v>
       </c>
       <c r="F19">
-        <v>5.796419416891467</v>
+        <v>6.818987118742001</v>
       </c>
       <c r="G19">
-        <v>0.0005798779602490451</v>
+        <v>0.002763845664268935</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.48737360633271</v>
+        <v>5.103924468676936</v>
       </c>
       <c r="J19">
-        <v>0.5291603156506142</v>
+        <v>0.1849775588171667</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.7521292107087163</v>
+        <v>0.2141435109746936</v>
       </c>
       <c r="M19">
-        <v>50.3481109140285</v>
+        <v>16.51914555310054</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2985063610544358</v>
+        <v>0.07056897518415894</v>
       </c>
       <c r="D20">
-        <v>0.5591382702516512</v>
+        <v>0.1576982886391818</v>
       </c>
       <c r="E20">
-        <v>0.3815766315403337</v>
+        <v>0.1097532439849687</v>
       </c>
       <c r="F20">
-        <v>5.796419416891467</v>
+        <v>6.757839519303673</v>
       </c>
       <c r="G20">
-        <v>0.0005798779602490451</v>
+        <v>0.002758231476483541</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.48737360633271</v>
+        <v>5.058751106506449</v>
       </c>
       <c r="J20">
-        <v>0.5291603156506142</v>
+        <v>0.1876114471842811</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7521292107087163</v>
+        <v>0.2208404864629898</v>
       </c>
       <c r="M20">
-        <v>50.3481109140285</v>
+        <v>17.01712857753012</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2985063610544358</v>
+        <v>0.07862965472233441</v>
       </c>
       <c r="D21">
-        <v>0.5591382702516512</v>
+        <v>0.1678063088641011</v>
       </c>
       <c r="E21">
-        <v>0.3815766315403337</v>
+        <v>0.1227512074353001</v>
       </c>
       <c r="F21">
-        <v>5.796419416891467</v>
+        <v>6.565446587564082</v>
       </c>
       <c r="G21">
-        <v>0.0005798779602490451</v>
+        <v>0.002739802557483628</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.48737360633271</v>
+        <v>4.91685097145465</v>
       </c>
       <c r="J21">
-        <v>0.5291603156506142</v>
+        <v>0.1967472531083558</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7521292107087163</v>
+        <v>0.2434716519536835</v>
       </c>
       <c r="M21">
-        <v>50.3481109140285</v>
+        <v>18.69288045546023</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2985063610544358</v>
+        <v>0.08396394512249117</v>
       </c>
       <c r="D22">
-        <v>0.5591382702516512</v>
+        <v>0.1746602738161585</v>
       </c>
       <c r="E22">
-        <v>0.3815766315403337</v>
+        <v>0.1312694126686793</v>
       </c>
       <c r="F22">
-        <v>5.796419416891467</v>
+        <v>6.449662824021971</v>
       </c>
       <c r="G22">
-        <v>0.0005798779602490451</v>
+        <v>0.002728076171437015</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.48737360633271</v>
+        <v>4.831645663340552</v>
       </c>
       <c r="J22">
-        <v>0.5291603156506142</v>
+        <v>0.2029423787512883</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7521292107087163</v>
+        <v>0.2583692132072031</v>
       </c>
       <c r="M22">
-        <v>50.3481109140285</v>
+        <v>19.79056508420888</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2985063610544358</v>
+        <v>0.08111055801740008</v>
       </c>
       <c r="D23">
-        <v>0.5591382702516512</v>
+        <v>0.1709787176865802</v>
       </c>
       <c r="E23">
-        <v>0.3815766315403337</v>
+        <v>0.1267206974378823</v>
       </c>
       <c r="F23">
-        <v>5.796419416891467</v>
+        <v>6.510532925389384</v>
       </c>
       <c r="G23">
-        <v>0.0005798779602490451</v>
+        <v>0.002734306028558171</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.48737360633271</v>
+        <v>4.876420491868444</v>
       </c>
       <c r="J23">
-        <v>0.5291603156506142</v>
+        <v>0.1996146659907225</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.7521292107087163</v>
+        <v>0.2504076850617878</v>
       </c>
       <c r="M23">
-        <v>50.3481109140285</v>
+        <v>19.20444626355106</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2985063610544358</v>
+        <v>0.07043827443524719</v>
       </c>
       <c r="D24">
-        <v>0.5591382702516512</v>
+        <v>0.1575370879828313</v>
       </c>
       <c r="E24">
-        <v>0.3815766315403337</v>
+        <v>0.1095411362406935</v>
       </c>
       <c r="F24">
-        <v>5.796419416891467</v>
+        <v>6.761148904348772</v>
       </c>
       <c r="G24">
-        <v>0.0005798779602490451</v>
+        <v>0.002758538134469191</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.48737360633271</v>
+        <v>5.061195089463212</v>
       </c>
       <c r="J24">
-        <v>0.5291603156506142</v>
+        <v>0.1874657564541025</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7521292107087163</v>
+        <v>0.2204722543407485</v>
       </c>
       <c r="M24">
-        <v>50.3481109140285</v>
+        <v>16.98977329961127</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2985063610544358</v>
+        <v>0.0591795324558575</v>
       </c>
       <c r="D25">
-        <v>0.5591382702516512</v>
+        <v>0.1440251814783835</v>
       </c>
       <c r="E25">
-        <v>0.3815766315403337</v>
+        <v>0.09108573358493999</v>
       </c>
       <c r="F25">
-        <v>5.796419416891467</v>
+        <v>7.07278214119259</v>
       </c>
       <c r="G25">
-        <v>0.0005798779602490451</v>
+        <v>0.002786076605364353</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>4.48737360633271</v>
+        <v>5.291746182391094</v>
       </c>
       <c r="J25">
-        <v>0.5291603156506142</v>
+        <v>0.1752551375975315</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.7521292107087163</v>
+        <v>0.1885792377796633</v>
       </c>
       <c r="M25">
-        <v>50.3481109140285</v>
+        <v>14.60809375711887</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_99/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_99/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05107311783547175</v>
+        <v>0.1893408085753947</v>
       </c>
       <c r="D2">
-        <v>0.1348425512076261</v>
+        <v>0.33042860184608</v>
       </c>
       <c r="E2">
-        <v>0.07753440865865002</v>
+        <v>0.2614469882247832</v>
       </c>
       <c r="F2">
-        <v>7.336283575130153</v>
+        <v>2.897906118449924</v>
       </c>
       <c r="G2">
-        <v>0.002807598003919605</v>
+        <v>0.0006963056468629108</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.48723525839327</v>
+        <v>2.243283291546021</v>
       </c>
       <c r="J2">
-        <v>0.1669609229091691</v>
+        <v>0.3110409892615422</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1653712041401434</v>
+        <v>0.4942059136844819</v>
       </c>
       <c r="M2">
-        <v>12.85679754728847</v>
+        <v>34.11667773667352</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04567767352035901</v>
+        <v>0.154635717958584</v>
       </c>
       <c r="D3">
-        <v>0.1290583356567936</v>
+        <v>0.2646355000637755</v>
       </c>
       <c r="E3">
-        <v>0.06836154237538494</v>
+        <v>0.2193736808745186</v>
       </c>
       <c r="F3">
-        <v>7.535399107722242</v>
+        <v>2.347737865937404</v>
       </c>
       <c r="G3">
-        <v>0.002822979187190019</v>
+        <v>0.0007370808377001881</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.635235392315465</v>
+        <v>1.811805970495698</v>
       </c>
       <c r="J3">
-        <v>0.1617416232217437</v>
+        <v>0.2520463326325171</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1497844912632473</v>
+        <v>0.4107762845590344</v>
       </c>
       <c r="M3">
-        <v>11.66965917421413</v>
+        <v>28.57842521300404</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04240839678877251</v>
+        <v>0.1357451990668324</v>
       </c>
       <c r="D4">
-        <v>0.1257111067537693</v>
+        <v>0.23028784492044</v>
       </c>
       <c r="E4">
-        <v>0.06273122383467467</v>
+        <v>0.1956373971147443</v>
       </c>
       <c r="F4">
-        <v>7.66756436280896</v>
+        <v>2.129939138281642</v>
       </c>
       <c r="G4">
-        <v>0.002832821965852642</v>
+        <v>0.0007604009650326637</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.733589757468593</v>
+        <v>1.638887251830141</v>
       </c>
       <c r="J4">
-        <v>0.1587253388242544</v>
+        <v>0.2219544034445704</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1402753348585151</v>
+        <v>0.3649471868172753</v>
       </c>
       <c r="M4">
-        <v>10.94011934200449</v>
+        <v>25.47775079678803</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04108640659902107</v>
+        <v>0.1284665841461958</v>
       </c>
       <c r="D5">
-        <v>0.1243967398262527</v>
+        <v>0.2173416506351344</v>
       </c>
       <c r="E5">
-        <v>0.06043684315277886</v>
+        <v>0.1863262536094581</v>
       </c>
       <c r="F5">
-        <v>7.72388160468725</v>
+        <v>2.062371528078728</v>
       </c>
       <c r="G5">
-        <v>0.002836934067618377</v>
+        <v>0.0007696428312126591</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.775526339184779</v>
+        <v>1.584656343077938</v>
       </c>
       <c r="J5">
-        <v>0.1575422248114222</v>
+        <v>0.2107407743923773</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1364145340559304</v>
+        <v>0.3471961861532975</v>
       </c>
       <c r="M5">
-        <v>10.64260377035265</v>
+        <v>24.26552335748488</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04086749169991322</v>
+        <v>0.1272793169115687</v>
       </c>
       <c r="D6">
-        <v>0.1241814401303998</v>
+        <v>0.2152455297620008</v>
       </c>
       <c r="E6">
-        <v>0.06005585180788842</v>
+        <v>0.184798449854263</v>
       </c>
       <c r="F6">
-        <v>7.733380613111891</v>
+        <v>2.052244638568212</v>
       </c>
       <c r="G6">
-        <v>0.002837623008571925</v>
+        <v>0.0007711652478986641</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.782601280452852</v>
+        <v>1.576488315130305</v>
       </c>
       <c r="J6">
-        <v>0.1573485136467383</v>
+        <v>0.2089318630940085</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1357742811729423</v>
+        <v>0.3442953805103173</v>
       </c>
       <c r="M6">
-        <v>10.59318636903942</v>
+        <v>24.06682294440435</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04239052728328829</v>
+        <v>0.1356455273206478</v>
       </c>
       <c r="D7">
-        <v>0.1256931819150537</v>
+        <v>0.2301094603803477</v>
       </c>
       <c r="E7">
-        <v>0.06270028149939577</v>
+        <v>0.1955105264313772</v>
       </c>
       <c r="F7">
-        <v>7.668313963369201</v>
+        <v>2.128950959749545</v>
       </c>
       <c r="G7">
-        <v>0.002832877012571423</v>
+        <v>0.0007605264922825183</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.73414784489681</v>
+        <v>1.638096933831847</v>
       </c>
       <c r="J7">
-        <v>0.1587091981814268</v>
+        <v>0.2217994102180967</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1402232104336747</v>
+        <v>0.3647044770785328</v>
       </c>
       <c r="M7">
-        <v>10.93610792236916</v>
+        <v>25.46121857635541</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04920330937341078</v>
+        <v>0.1767248702007436</v>
       </c>
       <c r="D8">
-        <v>0.1328046978263728</v>
+        <v>0.3061176722318919</v>
       </c>
       <c r="E8">
-        <v>0.07437093538643325</v>
+        <v>0.2463761116550103</v>
       </c>
       <c r="F8">
-        <v>7.402862500103339</v>
+        <v>2.676187444326274</v>
       </c>
       <c r="G8">
-        <v>0.002812819207504053</v>
+        <v>0.0007108544407982249</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.536697672433931</v>
+        <v>2.069952189172724</v>
       </c>
       <c r="J8">
-        <v>0.1651213819755526</v>
+        <v>0.2890377596908849</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1599835084042525</v>
+        <v>0.4639803890962213</v>
       </c>
       <c r="M8">
-        <v>12.447563431464</v>
+        <v>32.12607523555891</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0629413649668038</v>
+        <v>0.2985063610542085</v>
       </c>
       <c r="D9">
-        <v>0.1484523175404178</v>
+        <v>0.5591382702519354</v>
       </c>
       <c r="E9">
-        <v>0.09729492870617662</v>
+        <v>0.3815766315403195</v>
       </c>
       <c r="F9">
-        <v>6.9624230663307</v>
+        <v>5.796419416891069</v>
       </c>
       <c r="G9">
-        <v>0.002776609481830001</v>
+        <v>0.0005798779602618209</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5.210013160579052</v>
+        <v>4.487373606332383</v>
       </c>
       <c r="J9">
-        <v>0.1792555236583695</v>
+        <v>0.5291603156506142</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1992755667670139</v>
+        <v>0.7521292107086595</v>
       </c>
       <c r="M9">
-        <v>15.40976150285911</v>
+        <v>50.34811091402764</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07331339805311643</v>
+        <v>0.2985063610542085</v>
       </c>
       <c r="D10">
-        <v>0.161103748367708</v>
+        <v>0.5591382702519354</v>
       </c>
       <c r="E10">
-        <v>0.1141967527032932</v>
+        <v>0.3815766315403195</v>
       </c>
       <c r="F10">
-        <v>6.689803322038415</v>
+        <v>5.796419416891069</v>
       </c>
       <c r="G10">
-        <v>0.002751852736617974</v>
+        <v>0.0005798779602618209</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>5.00852890086415</v>
+        <v>4.487373606332383</v>
       </c>
       <c r="J10">
-        <v>0.1906892919340351</v>
+        <v>0.5291603156506142</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2285628323625986</v>
+        <v>0.7521292107086595</v>
       </c>
       <c r="M10">
-        <v>17.59012777263155</v>
+        <v>50.34811091402764</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07810358047638033</v>
+        <v>0.2985063610542085</v>
       </c>
       <c r="D11">
-        <v>0.1671371359386455</v>
+        <v>0.5591382702519354</v>
       </c>
       <c r="E11">
-        <v>0.1219076831428367</v>
+        <v>0.3815766315403195</v>
       </c>
       <c r="F11">
-        <v>6.577337877566322</v>
+        <v>5.796419416891069</v>
       </c>
       <c r="G11">
-        <v>0.002740978076939132</v>
+        <v>0.0005798779602618209</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.925610423829681</v>
+        <v>4.487373606332383</v>
       </c>
       <c r="J11">
-        <v>0.1961424235683467</v>
+        <v>0.5291603156506142</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2419991677643623</v>
+        <v>0.7521292107086595</v>
       </c>
       <c r="M11">
-        <v>18.58416102513786</v>
+        <v>50.34811091402764</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07992879057482583</v>
+        <v>0.2985063610542085</v>
       </c>
       <c r="D12">
-        <v>0.1694641621954815</v>
+        <v>0.5591382702519354</v>
       </c>
       <c r="E12">
-        <v>0.1248315742270307</v>
+        <v>0.3815766315403195</v>
       </c>
       <c r="F12">
-        <v>6.536454046529798</v>
+        <v>5.796419416891069</v>
       </c>
       <c r="G12">
-        <v>0.002736914721665212</v>
+        <v>0.0005798779602618209</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.895500809407508</v>
+        <v>4.487373606332383</v>
       </c>
       <c r="J12">
-        <v>0.1982457109846507</v>
+        <v>0.5291603156506142</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2471053718840324</v>
+        <v>0.7521292107086595</v>
       </c>
       <c r="M12">
-        <v>18.96099667253446</v>
+        <v>50.34811091402764</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07953518220909928</v>
+        <v>0.2985063610542085</v>
       </c>
       <c r="D13">
-        <v>0.1689610755557283</v>
+        <v>0.5591382702519354</v>
       </c>
       <c r="E13">
-        <v>0.1242016748873027</v>
+        <v>0.3815766315403195</v>
       </c>
       <c r="F13">
-        <v>6.545182594569837</v>
+        <v>5.796419416891069</v>
       </c>
       <c r="G13">
-        <v>0.002737787424980957</v>
+        <v>0.0005798779602618209</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.901927541230393</v>
+        <v>4.487373606332383</v>
       </c>
       <c r="J13">
-        <v>0.1977909919202716</v>
+        <v>0.5291603156506142</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2460048210305388</v>
+        <v>0.7521292107086595</v>
       </c>
       <c r="M13">
-        <v>18.87981808709748</v>
+        <v>50.34811091402764</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07825351017990556</v>
+        <v>0.2985063610542085</v>
       </c>
       <c r="D14">
-        <v>0.1673277201285543</v>
+        <v>0.5591382702519354</v>
       </c>
       <c r="E14">
-        <v>0.1221481502576367</v>
+        <v>0.3815766315403195</v>
       </c>
       <c r="F14">
-        <v>6.573939925657413</v>
+        <v>5.796419416891069</v>
       </c>
       <c r="G14">
-        <v>0.002740642693125144</v>
+        <v>0.0005798779602618209</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.923107241419203</v>
+        <v>4.487373606332383</v>
       </c>
       <c r="J14">
-        <v>0.1963146821038322</v>
+        <v>0.5291603156506142</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2424188832906395</v>
+        <v>0.7521292107086595</v>
       </c>
       <c r="M14">
-        <v>18.61515454043945</v>
+        <v>50.34811091402764</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0774699455408836</v>
+        <v>0.2985063610542085</v>
       </c>
       <c r="D15">
-        <v>0.1663328237106043</v>
+        <v>0.5591382702519354</v>
       </c>
       <c r="E15">
-        <v>0.1208908416286008</v>
+        <v>0.3815766315403195</v>
       </c>
       <c r="F15">
-        <v>6.591777906826763</v>
+        <v>5.796419416891069</v>
       </c>
       <c r="G15">
-        <v>0.00274239871172373</v>
+        <v>0.0005798779602618209</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.936249407175623</v>
+        <v>4.487373606332383</v>
       </c>
       <c r="J15">
-        <v>0.1954154526864329</v>
+        <v>0.5291603156506142</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2402248145561146</v>
+        <v>0.7521292107086595</v>
       </c>
       <c r="M15">
-        <v>18.45309799321001</v>
+        <v>50.34811091402764</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07300187377170175</v>
+        <v>0.2985063610542085</v>
       </c>
       <c r="D16">
-        <v>0.1607152450863509</v>
+        <v>0.5591382702519354</v>
       </c>
       <c r="E16">
-        <v>0.1136933337128454</v>
+        <v>0.3815766315403195</v>
       </c>
       <c r="F16">
-        <v>6.697389298214318</v>
+        <v>5.796419416891069</v>
       </c>
       <c r="G16">
-        <v>0.002752571125935191</v>
+        <v>0.0005798779602618209</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5.014126458600231</v>
+        <v>4.487373606332383</v>
       </c>
       <c r="J16">
-        <v>0.1903381600355232</v>
+        <v>0.5291603156506142</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2276871729943082</v>
+        <v>0.7521292107086595</v>
       </c>
       <c r="M16">
-        <v>17.52521782892046</v>
+        <v>50.34811091402764</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07027991937536626</v>
+        <v>0.2985063610542085</v>
       </c>
       <c r="D17">
-        <v>0.1573419018733944</v>
+        <v>0.5591382702519354</v>
       </c>
       <c r="E17">
-        <v>0.1092840889070459</v>
+        <v>0.3815766315403195</v>
       </c>
       <c r="F17">
-        <v>6.765167134117974</v>
+        <v>5.796419416891069</v>
       </c>
       <c r="G17">
-        <v>0.002758910036677581</v>
+        <v>0.0005798779602618209</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5.064162688509327</v>
+        <v>4.487373606332383</v>
       </c>
       <c r="J17">
-        <v>0.187289350442768</v>
+        <v>0.5291603156506142</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2200260525067819</v>
+        <v>0.7521292107086595</v>
       </c>
       <c r="M17">
-        <v>16.95662176432393</v>
+        <v>50.34811091402764</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06872103137293095</v>
+        <v>0.2985063610542085</v>
       </c>
       <c r="D18">
-        <v>0.1554276836887709</v>
+        <v>0.5591382702519354</v>
       </c>
       <c r="E18">
-        <v>0.1067500505917707</v>
+        <v>0.3815766315403195</v>
       </c>
       <c r="F18">
-        <v>6.80523564007521</v>
+        <v>5.796419416891069</v>
       </c>
       <c r="G18">
-        <v>0.002762592531388163</v>
+        <v>0.0005798779602618209</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>5.093762556633706</v>
+        <v>4.487373606332383</v>
       </c>
       <c r="J18">
-        <v>0.1855593275800231</v>
+        <v>0.5291603156506142</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2156301343311071</v>
+        <v>0.7521292107086595</v>
       </c>
       <c r="M18">
-        <v>16.62977822053313</v>
+        <v>50.34811091402764</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06819434313440809</v>
+        <v>0.2985063610542085</v>
       </c>
       <c r="D19">
-        <v>0.1547839660564989</v>
+        <v>0.5591382702519354</v>
       </c>
       <c r="E19">
-        <v>0.1058923980943192</v>
+        <v>0.3815766315403195</v>
       </c>
       <c r="F19">
-        <v>6.818987118742001</v>
+        <v>5.796419416891069</v>
       </c>
       <c r="G19">
-        <v>0.002763845664268935</v>
+        <v>0.0005798779602618209</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>5.103924468676936</v>
+        <v>4.487373606332383</v>
       </c>
       <c r="J19">
-        <v>0.1849775588171667</v>
+        <v>0.5291603156506142</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2141435109746936</v>
+        <v>0.7521292107086595</v>
       </c>
       <c r="M19">
-        <v>16.51914555310054</v>
+        <v>50.34811091402764</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07056897518415894</v>
+        <v>0.2985063610542085</v>
       </c>
       <c r="D20">
-        <v>0.1576982886391818</v>
+        <v>0.5591382702519354</v>
       </c>
       <c r="E20">
-        <v>0.1097532439849687</v>
+        <v>0.3815766315403195</v>
       </c>
       <c r="F20">
-        <v>6.757839519303673</v>
+        <v>5.796419416891069</v>
       </c>
       <c r="G20">
-        <v>0.002758231476483541</v>
+        <v>0.0005798779602618209</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5.058751106506449</v>
+        <v>4.487373606332383</v>
       </c>
       <c r="J20">
-        <v>0.1876114471842811</v>
+        <v>0.5291603156506142</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2208404864629898</v>
+        <v>0.7521292107086595</v>
       </c>
       <c r="M20">
-        <v>17.01712857753012</v>
+        <v>50.34811091402764</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07862965472233441</v>
+        <v>0.2985063610542085</v>
       </c>
       <c r="D21">
-        <v>0.1678063088641011</v>
+        <v>0.5591382702519354</v>
       </c>
       <c r="E21">
-        <v>0.1227512074353001</v>
+        <v>0.3815766315403195</v>
       </c>
       <c r="F21">
-        <v>6.565446587564082</v>
+        <v>5.796419416891069</v>
       </c>
       <c r="G21">
-        <v>0.002739802557483628</v>
+        <v>0.0005798779602618209</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.91685097145465</v>
+        <v>4.487373606332383</v>
       </c>
       <c r="J21">
-        <v>0.1967472531083558</v>
+        <v>0.5291603156506142</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2434716519536835</v>
+        <v>0.7521292107086595</v>
       </c>
       <c r="M21">
-        <v>18.69288045546023</v>
+        <v>50.34811091402764</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08396394512249117</v>
+        <v>0.2985063610542085</v>
       </c>
       <c r="D22">
-        <v>0.1746602738161585</v>
+        <v>0.5591382702519354</v>
       </c>
       <c r="E22">
-        <v>0.1312694126686793</v>
+        <v>0.3815766315403195</v>
       </c>
       <c r="F22">
-        <v>6.449662824021971</v>
+        <v>5.796419416891069</v>
       </c>
       <c r="G22">
-        <v>0.002728076171437015</v>
+        <v>0.0005798779602618209</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.831645663340552</v>
+        <v>4.487373606332383</v>
       </c>
       <c r="J22">
-        <v>0.2029423787512883</v>
+        <v>0.5291603156506142</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2583692132072031</v>
+        <v>0.7521292107086595</v>
       </c>
       <c r="M22">
-        <v>19.79056508420888</v>
+        <v>50.34811091402764</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08111055801740008</v>
+        <v>0.2985063610542085</v>
       </c>
       <c r="D23">
-        <v>0.1709787176865802</v>
+        <v>0.5591382702519354</v>
       </c>
       <c r="E23">
-        <v>0.1267206974378823</v>
+        <v>0.3815766315403195</v>
       </c>
       <c r="F23">
-        <v>6.510532925389384</v>
+        <v>5.796419416891069</v>
       </c>
       <c r="G23">
-        <v>0.002734306028558171</v>
+        <v>0.0005798779602618209</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.876420491868444</v>
+        <v>4.487373606332383</v>
       </c>
       <c r="J23">
-        <v>0.1996146659907225</v>
+        <v>0.5291603156506142</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2504076850617878</v>
+        <v>0.7521292107086595</v>
       </c>
       <c r="M23">
-        <v>19.20444626355106</v>
+        <v>50.34811091402764</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07043827443524719</v>
+        <v>0.2985063610542085</v>
       </c>
       <c r="D24">
-        <v>0.1575370879828313</v>
+        <v>0.5591382702519354</v>
       </c>
       <c r="E24">
-        <v>0.1095411362406935</v>
+        <v>0.3815766315403195</v>
       </c>
       <c r="F24">
-        <v>6.761148904348772</v>
+        <v>5.796419416891069</v>
       </c>
       <c r="G24">
-        <v>0.002758538134469191</v>
+        <v>0.0005798779602618209</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>5.061195089463212</v>
+        <v>4.487373606332383</v>
       </c>
       <c r="J24">
-        <v>0.1874657564541025</v>
+        <v>0.5291603156506142</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2204722543407485</v>
+        <v>0.7521292107086595</v>
       </c>
       <c r="M24">
-        <v>16.98977329961127</v>
+        <v>50.34811091402764</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0591795324558575</v>
+        <v>0.2985063610542085</v>
       </c>
       <c r="D25">
-        <v>0.1440251814783835</v>
+        <v>0.5591382702519354</v>
       </c>
       <c r="E25">
-        <v>0.09108573358493999</v>
+        <v>0.3815766315403195</v>
       </c>
       <c r="F25">
-        <v>7.07278214119259</v>
+        <v>5.796419416891069</v>
       </c>
       <c r="G25">
-        <v>0.002786076605364353</v>
+        <v>0.0005798779602618209</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>5.291746182391094</v>
+        <v>4.487373606332383</v>
       </c>
       <c r="J25">
-        <v>0.1752551375975315</v>
+        <v>0.5291603156506142</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1885792377796633</v>
+        <v>0.7521292107086595</v>
       </c>
       <c r="M25">
-        <v>14.60809375711887</v>
+        <v>50.34811091402764</v>
       </c>
       <c r="N25">
         <v>0</v>
